--- a/xlsx/country_comparison/sustainable_futures_positive.xlsx
+++ b/xlsx/country_comparison/sustainable_futures_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -433,13 +436,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.679366394096195</v>
+        <v>0.681044372483487</v>
       </c>
       <c r="C2" t="n">
         <v>0.701539116816613</v>
@@ -469,18 +475,21 @@
         <v>0.759423291434471</v>
       </c>
       <c r="L2" t="n">
+        <v>0.691340656670987</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.721853509181885</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.618615448895168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.693628531000139</v>
+        <v>0.700924411984922</v>
       </c>
       <c r="C3" t="n">
         <v>0.720085595824866</v>
@@ -510,18 +519,21 @@
         <v>0.757102957447094</v>
       </c>
       <c r="L3" t="n">
+        <v>0.745320139951538</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.815436145072691</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.623296468364111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.664640848496477</v>
+        <v>0.660429517639581</v>
       </c>
       <c r="C4" t="n">
         <v>0.68320853906189</v>
@@ -551,9 +563,12 @@
         <v>0.758873295962316</v>
       </c>
       <c r="L4" t="n">
+        <v>0.631674849260434</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.598082915941509</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.609951253611223</v>
       </c>
     </row>

--- a/xlsx/country_comparison/sustainable_futures_positive.xlsx
+++ b/xlsx/country_comparison/sustainable_futures_positive.xlsx
@@ -445,13 +445,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.681044372483487</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C2" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.721220700610069</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E2" t="n">
         <v>0.703415187125182</v>
@@ -472,16 +472,16 @@
         <v>0.659704988708263</v>
       </c>
       <c r="K2" t="n">
-        <v>0.759423291434471</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L2" t="n">
-        <v>0.691340656670987</v>
+        <v>0.690381293922693</v>
       </c>
       <c r="M2" t="n">
         <v>0.721853509181885</v>
       </c>
       <c r="N2" t="n">
-        <v>0.618615448895168</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
     <row r="3">
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.700924411984922</v>
+        <v>0.69861761980374</v>
       </c>
       <c r="C3" t="n">
         <v>0.720085595824866</v>
@@ -516,16 +516,16 @@
         <v>0.658773642965459</v>
       </c>
       <c r="K3" t="n">
-        <v>0.757102957447094</v>
+        <v>0.757178577397713</v>
       </c>
       <c r="L3" t="n">
-        <v>0.745320139951538</v>
+        <v>0.733729575456935</v>
       </c>
       <c r="M3" t="n">
         <v>0.815436145072691</v>
       </c>
       <c r="N3" t="n">
-        <v>0.623296468364111</v>
+        <v>0.623193310926974</v>
       </c>
     </row>
     <row r="4">
@@ -533,7 +533,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.660429517639581</v>
+        <v>0.662577293517367</v>
       </c>
       <c r="C4" t="n">
         <v>0.68320853906189</v>
@@ -560,16 +560,16 @@
         <v>0.672192292694225</v>
       </c>
       <c r="K4" t="n">
-        <v>0.758873295962316</v>
+        <v>0.759030706028559</v>
       </c>
       <c r="L4" t="n">
-        <v>0.631674849260434</v>
+        <v>0.645983607142547</v>
       </c>
       <c r="M4" t="n">
         <v>0.598082915941509</v>
       </c>
       <c r="N4" t="n">
-        <v>0.609951253611223</v>
+        <v>0.610255864577834</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/sustainable_futures_positive.xlsx
+++ b/xlsx/country_comparison/sustainable_futures_positive.xlsx
@@ -445,7 +445,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C2" t="n">
         <v>0.701539116816613</v>
@@ -466,7 +466,7 @@
         <v>0.731116681894394</v>
       </c>
       <c r="I2" t="n">
-        <v>0.683377424047149</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J2" t="n">
         <v>0.659704988708263</v>
@@ -475,7 +475,7 @@
         <v>0.759539408850822</v>
       </c>
       <c r="L2" t="n">
-        <v>0.690381293922693</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M2" t="n">
         <v>0.721853509181885</v>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.69861761980374</v>
+        <v>0.698563864639442</v>
       </c>
       <c r="C3" t="n">
         <v>0.720085595824866</v>
@@ -519,7 +519,7 @@
         <v>0.757178577397713</v>
       </c>
       <c r="L3" t="n">
-        <v>0.733729575456935</v>
+        <v>0.733075012505842</v>
       </c>
       <c r="M3" t="n">
         <v>0.815436145072691</v>
@@ -533,7 +533,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.662577293517367</v>
+        <v>0.66248064669155</v>
       </c>
       <c r="C4" t="n">
         <v>0.68320853906189</v>
@@ -563,7 +563,7 @@
         <v>0.759030706028559</v>
       </c>
       <c r="L4" t="n">
-        <v>0.645983607142547</v>
+        <v>0.644869545559419</v>
       </c>
       <c r="M4" t="n">
         <v>0.598082915941509</v>
